--- a/stacks.xlsx
+++ b/stacks.xlsx
@@ -423,52 +423,52 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/stacks.xlsx
+++ b/stacks.xlsx
@@ -423,22 +423,22 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -448,27 +448,27 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/stacks.xlsx
+++ b/stacks.xlsx
@@ -423,47 +423,47 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10">

--- a/stacks.xlsx
+++ b/stacks.xlsx
@@ -423,22 +423,22 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -448,27 +448,27 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/stacks.xlsx
+++ b/stacks.xlsx
@@ -423,52 +423,52 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/stacks.xlsx
+++ b/stacks.xlsx
@@ -423,52 +423,52 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/stacks.xlsx
+++ b/stacks.xlsx
@@ -423,22 +423,22 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -448,27 +448,27 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
